--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H2">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I2">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J2">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>105.1263326890495</v>
+        <v>0.5185448989444444</v>
       </c>
       <c r="R2">
-        <v>946.1369942014451</v>
+        <v>4.6669040905</v>
       </c>
       <c r="S2">
-        <v>0.1444397970458735</v>
+        <v>0.01787155583577135</v>
       </c>
       <c r="T2">
-        <v>0.1444397970458736</v>
+        <v>0.01787155583577135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H3">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I3">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J3">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>340.7068807503728</v>
+        <v>1.052001511245556</v>
       </c>
       <c r="R3">
-        <v>3066.361926753355</v>
+        <v>9.46801360121</v>
       </c>
       <c r="S3">
-        <v>0.4681189902560222</v>
+        <v>0.03625704116617888</v>
       </c>
       <c r="T3">
-        <v>0.4681189902560222</v>
+        <v>0.03625704116617888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H4">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I4">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J4">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>257.52328069229</v>
+        <v>0.79515529558</v>
       </c>
       <c r="R4">
-        <v>2317.70952623061</v>
+        <v>7.15639766022</v>
       </c>
       <c r="S4">
-        <v>0.3538277180067225</v>
+        <v>0.02740488295612322</v>
       </c>
       <c r="T4">
-        <v>0.3538277180067226</v>
+        <v>0.02740488295612322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J5">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>1.885399781481667</v>
+        <v>3.011915927583333</v>
       </c>
       <c r="R5">
-        <v>16.968598033335</v>
+        <v>27.10724334825</v>
       </c>
       <c r="S5">
-        <v>0.002590471433956084</v>
+        <v>0.1038051358368903</v>
       </c>
       <c r="T5">
-        <v>0.002590471433956084</v>
+        <v>0.1038051358368903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J6">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>6.110445043451667</v>
@@ -818,10 +818,10 @@
         <v>54.994005391065</v>
       </c>
       <c r="S6">
-        <v>0.008395531541528398</v>
+        <v>0.2105953794893246</v>
       </c>
       <c r="T6">
-        <v>0.0083955315415284</v>
+        <v>0.2105953794893246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J7">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>4.61857961487</v>
@@ -880,10 +880,10 @@
         <v>41.56721653383</v>
       </c>
       <c r="S7">
-        <v>0.006345762143013679</v>
+        <v>0.1591785082393565</v>
       </c>
       <c r="T7">
-        <v>0.00634576214301368</v>
+        <v>0.1591785082393565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J8">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N8">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q8">
-        <v>1.771173863076112</v>
+        <v>2.829440642305556</v>
       </c>
       <c r="R8">
-        <v>15.940564767685</v>
+        <v>25.46496578075</v>
       </c>
       <c r="S8">
-        <v>0.002433529133679347</v>
+        <v>0.09751615824569526</v>
       </c>
       <c r="T8">
-        <v>0.002433529133679347</v>
+        <v>0.09751615824569525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J9">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.919985</v>
       </c>
       <c r="O9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q9">
         <v>5.740247060079446</v>
@@ -1004,10 +1004,10 @@
         <v>51.662223540715</v>
       </c>
       <c r="S9">
-        <v>0.007886892837815249</v>
+        <v>0.1978365731765169</v>
       </c>
       <c r="T9">
-        <v>0.007886892837815251</v>
+        <v>0.1978365731765169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J10">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.27727</v>
       </c>
       <c r="O10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q10">
         <v>4.338765485570001</v>
@@ -1066,10 +1066,10 @@
         <v>39.04888937013</v>
       </c>
       <c r="S10">
-        <v>0.005961307601388927</v>
+        <v>0.1495347650541431</v>
       </c>
       <c r="T10">
-        <v>0.005961307601388928</v>
+        <v>0.149534765054143</v>
       </c>
     </row>
   </sheetData>
